--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="300">
   <si>
     <t>Other</t>
   </si>
@@ -907,6 +907,24 @@
   </si>
   <si>
     <t>prodAMDv</t>
+  </si>
+  <si>
+    <t>prodVVhf</t>
+  </si>
+  <si>
+    <t>prodFsyH</t>
+  </si>
+  <si>
+    <t>prodPcCp</t>
+  </si>
+  <si>
+    <t>prodpLJJ</t>
+  </si>
+  <si>
+    <t>prodDBms</t>
+  </si>
+  <si>
+    <t>prodXvSh</t>
   </si>
 </sst>
 </file>
@@ -937,7 +955,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="508">
+  <fills count="520">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3474,8 +3492,68 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="512">
+  <borders count="524">
     <border>
       <left/>
       <right/>
@@ -5420,11 +5498,53 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -5725,7 +5845,13 @@
     <xf applyBorder="true" applyFill="true" borderId="505" fillId="501" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="507" fillId="503" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="509" fillId="505" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="507" borderId="511" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="511" fillId="507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="513" fillId="509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="515" fillId="511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="517" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="519" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="521" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="519" borderId="523" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6095,8 +6221,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="272" t="s">
-        <v>293</v>
+      <c r="B2" s="278" t="s">
+        <v>299</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6133,8 +6259,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="269" t="s">
-        <v>290</v>
+      <c r="B3" s="275" t="s">
+        <v>296</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6227,8 +6353,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="270" t="s">
-        <v>291</v>
+      <c r="B5" s="276" t="s">
+        <v>297</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="321">
   <si>
     <t>Other</t>
   </si>
@@ -925,6 +925,69 @@
   </si>
   <si>
     <t>prodXvSh</t>
+  </si>
+  <si>
+    <t>prodbJjt</t>
+  </si>
+  <si>
+    <t>prodUebe</t>
+  </si>
+  <si>
+    <t>prodtVOI</t>
+  </si>
+  <si>
+    <t>prodTSDr</t>
+  </si>
+  <si>
+    <t>prodLCir</t>
+  </si>
+  <si>
+    <t>prodmNla</t>
+  </si>
+  <si>
+    <t>prodiIIH</t>
+  </si>
+  <si>
+    <t>prodhsKd</t>
+  </si>
+  <si>
+    <t>prodhvAf</t>
+  </si>
+  <si>
+    <t>prodtmeE</t>
+  </si>
+  <si>
+    <t>prodUruY</t>
+  </si>
+  <si>
+    <t>prodHtae</t>
+  </si>
+  <si>
+    <t>prodptjn</t>
+  </si>
+  <si>
+    <t>produofr</t>
+  </si>
+  <si>
+    <t>prodfZRT</t>
+  </si>
+  <si>
+    <t>prodCgnG</t>
+  </si>
+  <si>
+    <t>prodBtxr</t>
+  </si>
+  <si>
+    <t>prodmfTT</t>
+  </si>
+  <si>
+    <t>prodFTCZ</t>
+  </si>
+  <si>
+    <t>prodtXgH</t>
+  </si>
+  <si>
+    <t>prodJIOl</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1018,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="520">
+  <fills count="562">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3552,8 +3615,218 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="524">
+  <borders count="566">
     <border>
       <left/>
       <right/>
@@ -5540,11 +5813,158 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="300">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -5851,7 +6271,28 @@
     <xf applyBorder="true" applyFill="true" borderId="517" fillId="513" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="519" fillId="515" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="521" fillId="517" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="519" borderId="523" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="523" fillId="519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="525" fillId="521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="527" fillId="523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="529" fillId="525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="531" fillId="527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="533" fillId="529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="535" fillId="531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="537" fillId="533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="539" fillId="535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="541" fillId="537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="543" fillId="539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="545" fillId="541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="547" fillId="543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="549" fillId="545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="551" fillId="547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="553" fillId="549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="555" fillId="551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="557" fillId="553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="561" borderId="565" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6221,8 +6662,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="278" t="s">
-        <v>299</v>
+      <c r="B2" s="299" t="s">
+        <v>320</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6259,8 +6700,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="275" t="s">
-        <v>296</v>
+      <c r="B3" s="279" t="s">
+        <v>300</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6307,8 +6748,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="226" t="s">
-        <v>247</v>
+      <c r="B4" s="296" t="s">
+        <v>317</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -6353,8 +6794,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="276" t="s">
-        <v>297</v>
+      <c r="B5" s="280" t="s">
+        <v>301</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -6409,8 +6850,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="227" t="s">
-        <v>248</v>
+      <c r="B6" s="297" t="s">
+        <v>318</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -6455,8 +6896,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="228" t="s">
-        <v>249</v>
+      <c r="B7" s="298" t="s">
+        <v>319</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="333">
   <si>
     <t>Other</t>
   </si>
@@ -988,6 +988,42 @@
   </si>
   <si>
     <t>prodJIOl</t>
+  </si>
+  <si>
+    <t>prodkOWM</t>
+  </si>
+  <si>
+    <t>prodGDGa</t>
+  </si>
+  <si>
+    <t>prodAxip</t>
+  </si>
+  <si>
+    <t>prodxjFM</t>
+  </si>
+  <si>
+    <t>prodoAZn</t>
+  </si>
+  <si>
+    <t>prodQcaf</t>
+  </si>
+  <si>
+    <t>prodVHXF</t>
+  </si>
+  <si>
+    <t>prodvsPp</t>
+  </si>
+  <si>
+    <t>prodyXDq</t>
+  </si>
+  <si>
+    <t>prodBoeq</t>
+  </si>
+  <si>
+    <t>prodEeSK</t>
+  </si>
+  <si>
+    <t>prodTphQ</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1054,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="562">
+  <fills count="586">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3825,8 +3861,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="566">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -5960,11 +6116,95 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="312">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6292,7 +6532,19 @@
     <xf applyBorder="true" applyFill="true" borderId="559" fillId="555" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="561" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="563" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="561" borderId="565" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="585" borderId="589" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6662,8 +6914,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="299" t="s">
-        <v>320</v>
+      <c r="B2" s="311" t="s">
+        <v>332</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6700,8 +6952,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="279" t="s">
-        <v>300</v>
+      <c r="B3" s="303" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -6794,8 +7046,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="280" t="s">
-        <v>301</v>
+      <c r="B5" s="304" t="s">
+        <v>325</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="344">
   <si>
     <t>Other</t>
   </si>
@@ -1024,6 +1024,39 @@
   </si>
   <si>
     <t>prodTphQ</t>
+  </si>
+  <si>
+    <t>prodhQod</t>
+  </si>
+  <si>
+    <t>prodXHSv</t>
+  </si>
+  <si>
+    <t>prodWJub</t>
+  </si>
+  <si>
+    <t>prodShpy</t>
+  </si>
+  <si>
+    <t>prodLbea</t>
+  </si>
+  <si>
+    <t>prodgvQr</t>
+  </si>
+  <si>
+    <t>prodbEEp</t>
+  </si>
+  <si>
+    <t>prodnugb</t>
+  </si>
+  <si>
+    <t>prodSQus</t>
+  </si>
+  <si>
+    <t>prodDbyc</t>
+  </si>
+  <si>
+    <t>prodaCWk</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1087,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="586">
+  <fills count="608">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3981,8 +4014,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="590">
+  <borders count="612">
     <border>
       <left/>
       <right/>
@@ -6200,11 +6343,88 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6544,7 +6764,18 @@
     <xf applyBorder="true" applyFill="true" borderId="583" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="585" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="587" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="585" borderId="589" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="589" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="591" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="593" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="595" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="597" fillId="593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="599" fillId="595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="601" fillId="597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="603" fillId="599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="605" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="607" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="609" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="607" borderId="611" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -6914,8 +7145,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="311" t="s">
-        <v>332</v>
+      <c r="B2" s="322" t="s">
+        <v>343</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -6952,8 +7183,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="303" t="s">
-        <v>324</v>
+      <c r="B3" s="312" t="s">
+        <v>333</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7046,8 +7277,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="304" t="s">
-        <v>325</v>
+      <c r="B5" s="313" t="s">
+        <v>334</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
   <si>
     <t>Other</t>
   </si>
@@ -1057,6 +1057,36 @@
   </si>
   <si>
     <t>prodaCWk</t>
+  </si>
+  <si>
+    <t>prodkAgz</t>
+  </si>
+  <si>
+    <t>prodRdwI</t>
+  </si>
+  <si>
+    <t>prodWWCW</t>
+  </si>
+  <si>
+    <t>prododFf</t>
+  </si>
+  <si>
+    <t>prodXjQg</t>
+  </si>
+  <si>
+    <t>prodZdrU</t>
+  </si>
+  <si>
+    <t>prodounN</t>
+  </si>
+  <si>
+    <t>prodfwsW</t>
+  </si>
+  <si>
+    <t>prodvxOc</t>
+  </si>
+  <si>
+    <t>prodvEzv</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="608">
+  <fills count="628">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4124,8 +4154,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="612">
+  <borders count="632">
     <border>
       <left/>
       <right/>
@@ -6420,11 +6550,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="333">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6775,7 +6975,17 @@
     <xf applyBorder="true" applyFill="true" borderId="605" fillId="601" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="607" fillId="603" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="609" fillId="605" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="607" borderId="611" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="611" fillId="607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="613" fillId="609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="615" fillId="611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="617" fillId="613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="619" fillId="615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="621" fillId="617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="623" fillId="619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="625" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="627" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="629" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="627" borderId="631" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7145,8 +7355,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="322" t="s">
-        <v>343</v>
+      <c r="B2" s="332" t="s">
+        <v>353</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7231,8 +7441,8 @@
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="296" t="s">
-        <v>317</v>
+      <c r="B4" s="329" t="s">
+        <v>350</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -7333,8 +7543,8 @@
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="297" t="s">
-        <v>318</v>
+      <c r="B6" s="330" t="s">
+        <v>351</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -7379,8 +7589,8 @@
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="298" t="s">
-        <v>319</v>
+      <c r="B7" s="331" t="s">
+        <v>352</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="358">
   <si>
     <t>Other</t>
   </si>
@@ -1087,6 +1087,18 @@
   </si>
   <si>
     <t>prodvEzv</t>
+  </si>
+  <si>
+    <t>prodahoo</t>
+  </si>
+  <si>
+    <t>prodeOHL</t>
+  </si>
+  <si>
+    <t>prodxAwq</t>
+  </si>
+  <si>
+    <t>prodJKne</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="628">
+  <fills count="636">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4254,8 +4266,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="632">
+  <borders count="640">
     <border>
       <left/>
       <right/>
@@ -6620,11 +6672,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -6985,7 +7065,11 @@
     <xf applyBorder="true" applyFill="true" borderId="625" fillId="621" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="627" fillId="623" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="629" fillId="625" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="627" borderId="631" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="631" fillId="627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="633" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="635" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="637" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="635" borderId="639" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7355,8 +7439,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="332" t="s">
-        <v>353</v>
+      <c r="B2" s="336" t="s">
+        <v>357</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7393,8 +7477,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="312" t="s">
-        <v>333</v>
+      <c r="B3" s="333" t="s">
+        <v>354</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7487,8 +7571,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="313" t="s">
-        <v>334</v>
+      <c r="B5" s="334" t="s">
+        <v>355</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>

--- a/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
+++ b/testdata/FCfiles/stg/ManageProducts/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="368">
   <si>
     <t>Other</t>
   </si>
@@ -1099,6 +1099,36 @@
   </si>
   <si>
     <t>prodJKne</t>
+  </si>
+  <si>
+    <t>prodtIPg</t>
+  </si>
+  <si>
+    <t>prodVjsH</t>
+  </si>
+  <si>
+    <t>prodcDGy</t>
+  </si>
+  <si>
+    <t>prodRUzB</t>
+  </si>
+  <si>
+    <t>prodQaPp</t>
+  </si>
+  <si>
+    <t>prodhOje</t>
+  </si>
+  <si>
+    <t>prodGldp</t>
+  </si>
+  <si>
+    <t>prodjcxO</t>
+  </si>
+  <si>
+    <t>prodQxGi</t>
+  </si>
+  <si>
+    <t>prodOfdj</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="636">
+  <fills count="656">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4306,8 +4336,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="640">
+  <borders count="660">
     <border>
       <left/>
       <right/>
@@ -6700,11 +6830,81 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="347">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
@@ -7069,7 +7269,17 @@
     <xf applyBorder="true" applyFill="true" borderId="633" fillId="629" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="635" fillId="631" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="637" fillId="633" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="635" borderId="639" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="639" fillId="635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="641" fillId="637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="643" fillId="639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="645" fillId="641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="647" fillId="643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="649" fillId="645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="651" fillId="647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="653" fillId="649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="655" fillId="651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="657" fillId="653" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="655" borderId="659" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -7439,8 +7649,8 @@
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="336" t="s">
-        <v>357</v>
+      <c r="B2" s="346" t="s">
+        <v>367</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
@@ -7477,8 +7687,8 @@
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="333" t="s">
-        <v>354</v>
+      <c r="B3" s="342" t="s">
+        <v>363</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -7571,8 +7781,8 @@
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="334" t="s">
-        <v>355</v>
+      <c r="B5" s="343" t="s">
+        <v>364</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
